--- a/Code/Results/Cases/Case_0_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_221/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.888208206857153</v>
+        <v>3.322466478192388</v>
       </c>
       <c r="D2">
-        <v>4.7180844457366</v>
+        <v>8.638992300073987</v>
       </c>
       <c r="E2">
-        <v>6.348042705252276</v>
+        <v>12.37201559825996</v>
       </c>
       <c r="F2">
-        <v>28.59737097054423</v>
+        <v>32.54574313732715</v>
       </c>
       <c r="G2">
-        <v>2.034374652341326</v>
+        <v>3.630240520644479</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.68009143709645</v>
+        <v>23.00355010586011</v>
       </c>
       <c r="J2">
-        <v>4.837603554424055</v>
+        <v>9.340452987757853</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.50784719343253</v>
+        <v>23.73462125797119</v>
       </c>
       <c r="N2">
-        <v>19.4537552096085</v>
+        <v>17.41703623623913</v>
       </c>
       <c r="O2">
-        <v>22.02626692313437</v>
+        <v>24.87948638320081</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.780635582832904</v>
+        <v>3.288864571732341</v>
       </c>
       <c r="D3">
-        <v>4.784842283297451</v>
+        <v>8.667074326772095</v>
       </c>
       <c r="E3">
-        <v>6.542866423100923</v>
+        <v>12.44140398867836</v>
       </c>
       <c r="F3">
-        <v>27.18596672979966</v>
+        <v>32.39441187383002</v>
       </c>
       <c r="G3">
-        <v>2.042729536432945</v>
+        <v>3.63340281407815</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.6312391872202</v>
+        <v>22.86973139493713</v>
       </c>
       <c r="J3">
-        <v>4.966023686888379</v>
+        <v>9.384523245209513</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.5504179085348</v>
+        <v>23.05034516553914</v>
       </c>
       <c r="N3">
-        <v>18.63063184921816</v>
+        <v>17.14195899497876</v>
       </c>
       <c r="O3">
-        <v>20.92964907396337</v>
+        <v>24.74858482806647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.712248565667629</v>
+        <v>3.267733310853226</v>
       </c>
       <c r="D4">
-        <v>4.827407018306955</v>
+        <v>8.685219072085934</v>
       </c>
       <c r="E4">
-        <v>6.665471395654326</v>
+        <v>12.48605657273915</v>
       </c>
       <c r="F4">
-        <v>26.31426551111677</v>
+        <v>32.31167324943948</v>
       </c>
       <c r="G4">
-        <v>2.048000734974468</v>
+        <v>3.635447463541185</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.97975187666133</v>
+        <v>22.79426592581971</v>
       </c>
       <c r="J4">
-        <v>5.046633260885165</v>
+        <v>9.412859956720116</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.3236009285807</v>
+        <v>22.62023740240928</v>
       </c>
       <c r="N4">
-        <v>18.10937256909508</v>
+        <v>16.97280910835753</v>
       </c>
       <c r="O4">
-        <v>20.25014774904423</v>
+        <v>24.6755062490762</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.683813144252647</v>
+        <v>3.259000105531092</v>
       </c>
       <c r="D5">
-        <v>4.84514803497327</v>
+        <v>8.692840653631105</v>
       </c>
       <c r="E5">
-        <v>6.716205256215671</v>
+        <v>12.50476935314296</v>
       </c>
       <c r="F5">
-        <v>25.95819489274505</v>
+        <v>32.28053947857153</v>
       </c>
       <c r="G5">
-        <v>2.050185821548379</v>
+        <v>3.636306663532887</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.71270062877527</v>
+        <v>22.76522257176308</v>
       </c>
       <c r="J5">
-        <v>5.079942206955787</v>
+        <v>9.42472960781188</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.82193099685979</v>
+        <v>22.44269394160919</v>
       </c>
       <c r="N5">
-        <v>17.89324201771258</v>
+        <v>16.90389865283502</v>
       </c>
       <c r="O5">
-        <v>19.97202516929777</v>
+        <v>24.64758296052244</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.679057867613016</v>
+        <v>3.25754269774724</v>
       </c>
       <c r="D6">
-        <v>4.848117798214198</v>
+        <v>8.694119965609975</v>
       </c>
       <c r="E6">
-        <v>6.724676769848465</v>
+        <v>12.50790783619372</v>
       </c>
       <c r="F6">
-        <v>25.89903272266309</v>
+        <v>32.27552633451081</v>
       </c>
       <c r="G6">
-        <v>2.050550932364281</v>
+        <v>3.636450905380848</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.66827289314107</v>
+        <v>22.76050385322129</v>
       </c>
       <c r="J6">
-        <v>5.085501402653809</v>
+        <v>9.426720044437333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.73767646680894</v>
+        <v>22.41308297316443</v>
       </c>
       <c r="N6">
-        <v>17.85713821422718</v>
+        <v>16.89245974081672</v>
       </c>
       <c r="O6">
-        <v>19.92578027608552</v>
+        <v>24.64305905736912</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.711867342734143</v>
+        <v>3.267616021194663</v>
       </c>
       <c r="D7">
-        <v>4.827644678758006</v>
+        <v>8.685320937707097</v>
       </c>
       <c r="E7">
-        <v>6.666152459483683</v>
+        <v>12.48630684656521</v>
       </c>
       <c r="F7">
-        <v>26.30946621194496</v>
+        <v>32.31124288312613</v>
       </c>
       <c r="G7">
-        <v>2.048030051954986</v>
+        <v>3.635458945664814</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.97615620302961</v>
+        <v>22.79386728523808</v>
       </c>
       <c r="J7">
-        <v>5.047080592401893</v>
+        <v>9.413018729058557</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.31689918433952</v>
+        <v>22.61785186381432</v>
       </c>
       <c r="N7">
-        <v>18.1064724004767</v>
+        <v>16.97187956881292</v>
       </c>
       <c r="O7">
-        <v>20.24640134943082</v>
+        <v>24.67512212060014</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.851613571496249</v>
+        <v>3.31098634460686</v>
       </c>
       <c r="D8">
-        <v>4.740775183361507</v>
+        <v>8.648488060525034</v>
       </c>
       <c r="E8">
-        <v>6.414612108985823</v>
+        <v>12.39551662312596</v>
       </c>
       <c r="F8">
-        <v>28.11201406314017</v>
+        <v>32.49146658585119</v>
       </c>
       <c r="G8">
-        <v>2.037227035516536</v>
+        <v>3.631309559281708</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.32017367116603</v>
+        <v>22.95603463646812</v>
       </c>
       <c r="J8">
-        <v>4.881528616900417</v>
+        <v>9.355383894142086</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.84804014119926</v>
+        <v>23.50088461193904</v>
       </c>
       <c r="N8">
-        <v>19.17338665526375</v>
+        <v>17.32229099186326</v>
       </c>
       <c r="O8">
-        <v>21.64961509971205</v>
+        <v>24.83285168165171</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.106366677568618</v>
+        <v>3.391919211534769</v>
       </c>
       <c r="D9">
-        <v>4.582967396766834</v>
+        <v>8.583391775605556</v>
       </c>
       <c r="E9">
-        <v>5.943985702621755</v>
+        <v>12.23365421745352</v>
       </c>
       <c r="F9">
-        <v>31.59124974515015</v>
+        <v>32.92443636391938</v>
       </c>
       <c r="G9">
-        <v>2.017089603515697</v>
+        <v>3.623985627140736</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.88551903463462</v>
+        <v>23.32597497721318</v>
       </c>
       <c r="J9">
-        <v>4.569986740629554</v>
+        <v>9.252451319735201</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>33.33164253111993</v>
+        <v>25.14411438863251</v>
       </c>
       <c r="N9">
-        <v>21.1295949636229</v>
+        <v>18.00389334178022</v>
       </c>
       <c r="O9">
-        <v>24.34091104721095</v>
+        <v>25.19891841578698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.280983953541155</v>
+        <v>3.448673818267319</v>
       </c>
       <c r="D10">
-        <v>4.474776428238536</v>
+        <v>8.539876830622928</v>
       </c>
       <c r="E10">
-        <v>5.61052328594925</v>
+        <v>12.12449385427441</v>
       </c>
       <c r="F10">
-        <v>34.09912090651292</v>
+        <v>33.28913270729051</v>
       </c>
       <c r="G10">
-        <v>2.002821195611126</v>
+        <v>3.619094539838489</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.71728016696918</v>
+        <v>23.62759102433816</v>
       </c>
       <c r="J10">
-        <v>4.347804009453983</v>
+        <v>9.182911322196514</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>36.28208550290934</v>
+        <v>26.28619384068628</v>
       </c>
       <c r="N10">
-        <v>22.4726866071041</v>
+        <v>18.49665465511209</v>
       </c>
       <c r="O10">
-        <v>26.27063687632732</v>
+        <v>25.50076058273719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.357584366972437</v>
+        <v>3.473865022106858</v>
       </c>
       <c r="D11">
-        <v>4.427280569667675</v>
+        <v>8.521009016541985</v>
       </c>
       <c r="E11">
-        <v>5.461148864202343</v>
+        <v>12.07693143210543</v>
       </c>
       <c r="F11">
-        <v>35.22809793846291</v>
+        <v>33.46467596889456</v>
       </c>
       <c r="G11">
-        <v>1.996416805807669</v>
+        <v>3.616974573440489</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.6674540839685</v>
+        <v>23.77083575868803</v>
       </c>
       <c r="J11">
-        <v>4.247873895779701</v>
+        <v>9.152582823624545</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>37.55135451775678</v>
+        <v>26.78955017544916</v>
       </c>
       <c r="N11">
-        <v>23.06149584225767</v>
+        <v>18.71815517954719</v>
       </c>
       <c r="O11">
-        <v>27.15958125587525</v>
+        <v>25.64479880603449</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.38617724530841</v>
+        <v>3.483310855958623</v>
       </c>
       <c r="D12">
-        <v>4.409547669741511</v>
+        <v>8.513997034363864</v>
       </c>
       <c r="E12">
-        <v>5.404888710017442</v>
+        <v>12.05922043696315</v>
       </c>
       <c r="F12">
-        <v>35.65388872129056</v>
+        <v>33.5324901458415</v>
       </c>
       <c r="G12">
-        <v>1.994001493480014</v>
+        <v>3.616186803235762</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.02815496622294</v>
+        <v>23.82590657713705</v>
       </c>
       <c r="J12">
-        <v>4.21016934937618</v>
+        <v>9.141284896313294</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>38.02165462207549</v>
+        <v>26.97768265906496</v>
       </c>
       <c r="N12">
-        <v>23.28116275670826</v>
+        <v>18.80157582485754</v>
       </c>
       <c r="O12">
-        <v>27.53987481272993</v>
+        <v>25.70027102262187</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.380037750670047</v>
+        <v>3.481280739393291</v>
       </c>
       <c r="D13">
-        <v>4.413355425388433</v>
+        <v>8.515501289618186</v>
       </c>
       <c r="E13">
-        <v>5.416992259082141</v>
+        <v>12.06302150275741</v>
       </c>
       <c r="F13">
-        <v>35.56226344931774</v>
+        <v>33.5178263374936</v>
       </c>
       <c r="G13">
-        <v>1.994521277421489</v>
+        <v>3.616355797205544</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.95066905778079</v>
+        <v>23.8140099769848</v>
       </c>
       <c r="J13">
-        <v>4.218284073197307</v>
+        <v>9.143709813063939</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>37.92082484463842</v>
+        <v>26.93727739186719</v>
       </c>
       <c r="N13">
-        <v>23.2340020051589</v>
+        <v>18.78363116039325</v>
       </c>
       <c r="O13">
-        <v>27.45816593133188</v>
+        <v>25.68828346262399</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.359945047211301</v>
+        <v>3.474644030109244</v>
       </c>
       <c r="D14">
-        <v>4.425816572128938</v>
+        <v>8.520429476906404</v>
       </c>
       <c r="E14">
-        <v>5.456514369581183</v>
+        <v>12.07546833630959</v>
       </c>
       <c r="F14">
-        <v>35.26316249064754</v>
+        <v>33.47022850903759</v>
       </c>
       <c r="G14">
-        <v>1.996217913809497</v>
+        <v>3.616909462676703</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.69721842715752</v>
+        <v>23.77535013266915</v>
       </c>
       <c r="J14">
-        <v>4.244769342875567</v>
+        <v>9.151649597544392</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>37.59025288182</v>
+        <v>26.80507841199399</v>
       </c>
       <c r="N14">
-        <v>23.0796347284744</v>
+        <v>18.72502781504861</v>
       </c>
       <c r="O14">
-        <v>27.19095599566085</v>
+        <v>25.6493441723044</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.347583612922493</v>
+        <v>3.470566574683885</v>
       </c>
       <c r="D15">
-        <v>4.433482482589342</v>
+        <v>8.523465420018709</v>
       </c>
       <c r="E15">
-        <v>5.480761611122812</v>
+        <v>12.08313139008072</v>
       </c>
       <c r="F15">
-        <v>35.07973010993228</v>
+        <v>33.44124650538136</v>
       </c>
       <c r="G15">
-        <v>1.997258361125604</v>
+        <v>3.617250551630891</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.54139113797251</v>
+        <v>23.7517763296801</v>
       </c>
       <c r="J15">
-        <v>4.261009302116041</v>
+        <v>9.156537246464982</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>37.38642512465647</v>
+        <v>26.7237758493987</v>
       </c>
       <c r="N15">
-        <v>22.98464725205988</v>
+        <v>18.68906993595304</v>
       </c>
       <c r="O15">
-        <v>27.02671051145005</v>
+        <v>25.62561238717235</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.275920299604155</v>
+        <v>3.447014608836152</v>
       </c>
       <c r="D16">
-        <v>4.477915441476797</v>
+        <v>8.541128504267565</v>
       </c>
       <c r="E16">
-        <v>5.620329486985008</v>
+        <v>12.12764420895655</v>
       </c>
       <c r="F16">
-        <v>34.02509717913847</v>
+        <v>33.27785062955766</v>
       </c>
       <c r="G16">
-        <v>2.003241265299722</v>
+        <v>3.619235190428475</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.66338328010571</v>
+        <v>23.61834767214825</v>
       </c>
       <c r="J16">
-        <v>4.354355364855427</v>
+        <v>9.184919553534346</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>36.19768045716827</v>
+        <v>26.25295946316044</v>
       </c>
       <c r="N16">
-        <v>22.433750109966</v>
+        <v>18.48211912701639</v>
       </c>
       <c r="O16">
-        <v>26.2137768589458</v>
+        <v>25.49147941436932</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.231225958117388</v>
+        <v>3.432403261528401</v>
       </c>
       <c r="D17">
-        <v>4.505617684349996</v>
+        <v>8.552201392324312</v>
       </c>
       <c r="E17">
-        <v>5.706523726265792</v>
+        <v>12.15548699162147</v>
       </c>
       <c r="F17">
-        <v>33.37503465309824</v>
+        <v>33.18004966951332</v>
       </c>
       <c r="G17">
-        <v>2.006931986827773</v>
+        <v>3.620479537385735</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.18964905638935</v>
+        <v>23.53801134185441</v>
       </c>
       <c r="J17">
-        <v>4.411893826895774</v>
+        <v>9.202664913278291</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>35.4498479358157</v>
+        <v>25.95987214038857</v>
       </c>
       <c r="N17">
-        <v>22.09002538448731</v>
+        <v>18.35442641974386</v>
       </c>
       <c r="O17">
-        <v>25.71419898462117</v>
+        <v>25.41088911543603</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.205252455321051</v>
+        <v>3.42394040535601</v>
       </c>
       <c r="D18">
-        <v>4.521712851218891</v>
+        <v>8.558657541243958</v>
       </c>
       <c r="E18">
-        <v>5.756320472119405</v>
+        <v>12.17169871603598</v>
       </c>
       <c r="F18">
-        <v>33.00001540252859</v>
+        <v>33.12470760199335</v>
       </c>
       <c r="G18">
-        <v>2.009063088703632</v>
+        <v>3.62120514233507</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.91599752137135</v>
+        <v>23.49237492946359</v>
       </c>
       <c r="J18">
-        <v>4.445097678851282</v>
+        <v>9.212994518734602</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>35.0128437180822</v>
+        <v>25.78978098658817</v>
       </c>
       <c r="N18">
-        <v>21.89024252646943</v>
+        <v>18.28073490852963</v>
       </c>
       <c r="O18">
-        <v>25.42578792257534</v>
+        <v>25.36517155015168</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.196412739769251</v>
+        <v>3.421065034799943</v>
       </c>
       <c r="D19">
-        <v>4.527190009118262</v>
+        <v>8.560858494432603</v>
       </c>
       <c r="E19">
-        <v>5.773219457318792</v>
+        <v>12.17722165593352</v>
       </c>
       <c r="F19">
-        <v>32.87284982015223</v>
+        <v>33.10612747098825</v>
       </c>
       <c r="G19">
-        <v>2.009786141059829</v>
+        <v>3.621452520853632</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.82314370540338</v>
+        <v>23.47702250311425</v>
       </c>
       <c r="J19">
-        <v>4.456359495266592</v>
+        <v>9.216513089665543</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>34.86369746565218</v>
+        <v>25.73193568060229</v>
       </c>
       <c r="N19">
-        <v>21.822245858768</v>
+        <v>18.25574429473078</v>
       </c>
       <c r="O19">
-        <v>25.32795491250351</v>
+        <v>25.3498027445098</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.236011383567678</v>
+        <v>3.433964774493416</v>
       </c>
       <c r="D20">
-        <v>4.502651977595706</v>
+        <v>8.551013631225363</v>
       </c>
       <c r="E20">
-        <v>5.697325628291177</v>
+        <v>12.15250267127151</v>
       </c>
       <c r="F20">
-        <v>33.44435128898537</v>
+        <v>33.19036684806937</v>
       </c>
       <c r="G20">
-        <v>2.006538262077645</v>
+        <v>3.620346051628926</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.24020043319181</v>
+        <v>23.5465044856102</v>
       </c>
       <c r="J20">
-        <v>4.405757643755545</v>
+        <v>9.200763171987674</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>35.53016610307464</v>
+        <v>25.99122973299017</v>
       </c>
       <c r="N20">
-        <v>22.12683179711604</v>
+        <v>18.36804554107394</v>
       </c>
       <c r="O20">
-        <v>25.76749060643446</v>
+        <v>25.41940256289688</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.365858038452298</v>
+        <v>3.476595957432745</v>
       </c>
       <c r="D21">
-        <v>4.422149522016931</v>
+        <v>8.518978347321356</v>
       </c>
       <c r="E21">
-        <v>5.444897733052756</v>
+        <v>12.07180427269934</v>
       </c>
       <c r="F21">
-        <v>35.35106238917785</v>
+        <v>33.48417317084535</v>
       </c>
       <c r="G21">
-        <v>1.995719323609531</v>
+        <v>3.616746430883649</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.77178386195255</v>
+        <v>23.78668335406598</v>
       </c>
       <c r="J21">
-        <v>4.236986493359883</v>
+        <v>9.149312427577906</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>37.68762947532445</v>
+        <v>26.84397682379355</v>
       </c>
       <c r="N21">
-        <v>23.12506656125117</v>
+        <v>18.74225401133652</v>
       </c>
       <c r="O21">
-        <v>27.26956083465073</v>
+        <v>25.66075672315419</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.448305634832991</v>
+        <v>3.503911241338503</v>
       </c>
       <c r="D22">
-        <v>4.371013325136044</v>
+        <v>8.498815556507505</v>
       </c>
       <c r="E22">
-        <v>5.281683465041489</v>
+        <v>12.02081037539214</v>
       </c>
       <c r="F22">
-        <v>36.5871792068986</v>
+        <v>33.68397803564594</v>
       </c>
       <c r="G22">
-        <v>1.988704803830796</v>
+        <v>3.614481350449505</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.8134671924995</v>
+        <v>23.94845510654388</v>
       </c>
       <c r="J22">
-        <v>4.127467917322238</v>
+        <v>9.116774877377667</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>39.03743211589346</v>
+        <v>27.38679562866824</v>
       </c>
       <c r="N22">
-        <v>23.75818481610267</v>
+        <v>18.98412629244543</v>
       </c>
       <c r="O22">
-        <v>28.36840910326829</v>
+        <v>25.82388541667477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.404524297883792</v>
+        <v>3.489383676493509</v>
       </c>
       <c r="D23">
-        <v>4.398168392955759</v>
+        <v>8.509506150227686</v>
       </c>
       <c r="E23">
-        <v>5.368642549329067</v>
+        <v>12.04786737927213</v>
       </c>
       <c r="F23">
-        <v>35.92834520634985</v>
+        <v>33.57664220700282</v>
       </c>
       <c r="G23">
-        <v>1.992444341883804</v>
+        <v>3.615682290314427</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.25983307971643</v>
+        <v>23.86168921769576</v>
       </c>
       <c r="J23">
-        <v>4.185858030388534</v>
+        <v>9.134041488506856</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>38.32247921569704</v>
+        <v>27.09845566865926</v>
       </c>
       <c r="N23">
-        <v>23.42207424058417</v>
+        <v>18.85530473900339</v>
       </c>
       <c r="O23">
-        <v>27.78422461541269</v>
+        <v>25.7363409565462</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.233848758513242</v>
+        <v>3.433259009199467</v>
       </c>
       <c r="D24">
-        <v>4.503992248292308</v>
+        <v>8.551550337026843</v>
       </c>
       <c r="E24">
-        <v>5.701483330790662</v>
+        <v>12.15385124527181</v>
       </c>
       <c r="F24">
-        <v>33.4130172522278</v>
+        <v>33.18569969140896</v>
       </c>
       <c r="G24">
-        <v>2.006716236016015</v>
+        <v>3.620406368719337</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.21735018922478</v>
+        <v>23.54266301895881</v>
       </c>
       <c r="J24">
-        <v>4.408531423181426</v>
+        <v>9.201622551804917</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>35.49387627698613</v>
+        <v>25.97705791042704</v>
       </c>
       <c r="N24">
-        <v>22.11019837101641</v>
+        <v>18.36188920049834</v>
       </c>
       <c r="O24">
-        <v>25.7434011913164</v>
+        <v>25.4155517150365</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.039606337278213</v>
+        <v>3.37048608360743</v>
       </c>
       <c r="D25">
-        <v>4.624307848460135</v>
+        <v>8.600242274839282</v>
       </c>
       <c r="E25">
-        <v>6.069028745273005</v>
+        <v>12.27572100434</v>
       </c>
       <c r="F25">
-        <v>30.65776333513024</v>
+        <v>32.7989712263597</v>
       </c>
       <c r="G25">
-        <v>2.022436159389155</v>
+        <v>3.625880511114031</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.20031896366098</v>
+        <v>23.22051614098257</v>
       </c>
       <c r="J25">
-        <v>4.652990781211932</v>
+        <v>9.279224040940614</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.17959583958213</v>
+        <v>24.71027626824297</v>
       </c>
       <c r="N25">
-        <v>20.61623019488036</v>
+        <v>17.82058340548246</v>
       </c>
       <c r="O25">
-        <v>23.62065196500687</v>
+        <v>25.0939766227154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_221/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.322466478192388</v>
+        <v>2.888208206857037</v>
       </c>
       <c r="D2">
-        <v>8.638992300073987</v>
+        <v>4.718084445736467</v>
       </c>
       <c r="E2">
-        <v>12.37201559825996</v>
+        <v>6.348042705252206</v>
       </c>
       <c r="F2">
-        <v>32.54574313732715</v>
+        <v>28.5973709705442</v>
       </c>
       <c r="G2">
-        <v>3.630240520644479</v>
+        <v>2.034374652341191</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.00355010586011</v>
+        <v>20.68009143709643</v>
       </c>
       <c r="J2">
-        <v>9.340452987757853</v>
+        <v>4.837603554424055</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.73462125797119</v>
+        <v>29.50784719343253</v>
       </c>
       <c r="N2">
-        <v>17.41703623623913</v>
+        <v>19.45375520960846</v>
       </c>
       <c r="O2">
-        <v>24.87948638320081</v>
+        <v>22.02626692313436</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.288864571732341</v>
+        <v>2.780635582833215</v>
       </c>
       <c r="D3">
-        <v>8.667074326772095</v>
+        <v>4.784842283297384</v>
       </c>
       <c r="E3">
-        <v>12.44140398867836</v>
+        <v>6.542866423100787</v>
       </c>
       <c r="F3">
-        <v>32.39441187383002</v>
+        <v>27.18596672979971</v>
       </c>
       <c r="G3">
-        <v>3.63340281407815</v>
+        <v>2.042729536432946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.86973139493713</v>
+        <v>19.63123918722023</v>
       </c>
       <c r="J3">
-        <v>9.384523245209513</v>
+        <v>4.966023686888313</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23.05034516553914</v>
+        <v>27.5504179085348</v>
       </c>
       <c r="N3">
-        <v>17.14195899497876</v>
+        <v>18.63063184921817</v>
       </c>
       <c r="O3">
-        <v>24.74858482806647</v>
+        <v>20.92964907396343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.267733310853226</v>
+        <v>2.712248565667515</v>
       </c>
       <c r="D4">
-        <v>8.685219072085934</v>
+        <v>4.827407018306958</v>
       </c>
       <c r="E4">
-        <v>12.48605657273915</v>
+        <v>6.665471395654259</v>
       </c>
       <c r="F4">
-        <v>32.31167324943948</v>
+        <v>26.31426551111672</v>
       </c>
       <c r="G4">
-        <v>3.635447463541185</v>
+        <v>2.048000734974601</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.79426592581971</v>
+        <v>18.9797518766613</v>
       </c>
       <c r="J4">
-        <v>9.412859956720116</v>
+        <v>5.046633260885065</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22.62023740240928</v>
+        <v>26.32360092858069</v>
       </c>
       <c r="N4">
-        <v>16.97280910835753</v>
+        <v>18.10937256909508</v>
       </c>
       <c r="O4">
-        <v>24.6755062490762</v>
+        <v>20.2501477490442</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.259000105531092</v>
+        <v>2.683813144252751</v>
       </c>
       <c r="D5">
-        <v>8.692840653631105</v>
+        <v>4.845148034973271</v>
       </c>
       <c r="E5">
-        <v>12.50476935314296</v>
+        <v>6.71620525621567</v>
       </c>
       <c r="F5">
-        <v>32.28053947857153</v>
+        <v>25.95819489274499</v>
       </c>
       <c r="G5">
-        <v>3.636306663532887</v>
+        <v>2.05018582154851</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.76522257176308</v>
+        <v>18.7127006287752</v>
       </c>
       <c r="J5">
-        <v>9.42472960781188</v>
+        <v>5.079942206955787</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>22.44269394160919</v>
+        <v>25.82193099685977</v>
       </c>
       <c r="N5">
-        <v>16.90389865283502</v>
+        <v>17.89324201771257</v>
       </c>
       <c r="O5">
-        <v>24.64758296052244</v>
+        <v>19.97202516929772</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.25754269774724</v>
+        <v>2.679057867612802</v>
       </c>
       <c r="D6">
-        <v>8.694119965609975</v>
+        <v>4.848117798214065</v>
       </c>
       <c r="E6">
-        <v>12.50790783619372</v>
+        <v>6.724676769848462</v>
       </c>
       <c r="F6">
-        <v>32.27552633451081</v>
+        <v>25.89903272266322</v>
       </c>
       <c r="G6">
-        <v>3.636450905380848</v>
+        <v>2.05055093236388</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.76050385322129</v>
+        <v>18.66827289314119</v>
       </c>
       <c r="J6">
-        <v>9.426720044437333</v>
+        <v>5.085501402653774</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22.41308297316443</v>
+        <v>25.73767646680898</v>
       </c>
       <c r="N6">
-        <v>16.89245974081672</v>
+        <v>17.8571382142272</v>
       </c>
       <c r="O6">
-        <v>24.64305905736912</v>
+        <v>19.92578027608563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.267616021194663</v>
+        <v>2.711867342734263</v>
       </c>
       <c r="D7">
-        <v>8.685320937707097</v>
+        <v>4.827644678758142</v>
       </c>
       <c r="E7">
-        <v>12.48630684656521</v>
+        <v>6.666152459483818</v>
       </c>
       <c r="F7">
-        <v>32.31124288312613</v>
+        <v>26.30946621194497</v>
       </c>
       <c r="G7">
-        <v>3.635458945664814</v>
+        <v>2.048030051954987</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.79386728523808</v>
+        <v>18.97615620302959</v>
       </c>
       <c r="J7">
-        <v>9.413018729058557</v>
+        <v>5.047080592401926</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22.61785186381432</v>
+        <v>26.31689918433953</v>
       </c>
       <c r="N7">
-        <v>16.97187956881292</v>
+        <v>18.1064724004767</v>
       </c>
       <c r="O7">
-        <v>24.67512212060014</v>
+        <v>20.24640134943081</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.31098634460686</v>
+        <v>2.851613571496277</v>
       </c>
       <c r="D8">
-        <v>8.648488060525034</v>
+        <v>4.740775183361639</v>
       </c>
       <c r="E8">
-        <v>12.39551662312596</v>
+        <v>6.414612108986025</v>
       </c>
       <c r="F8">
-        <v>32.49146658585119</v>
+        <v>28.11201406314008</v>
       </c>
       <c r="G8">
-        <v>3.631309559281708</v>
+        <v>2.037227035516936</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.95603463646812</v>
+        <v>20.32017367116596</v>
       </c>
       <c r="J8">
-        <v>9.355383894142086</v>
+        <v>4.881528616900453</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.50088461193904</v>
+        <v>28.84804014119932</v>
       </c>
       <c r="N8">
-        <v>17.32229099186326</v>
+        <v>19.17338665526375</v>
       </c>
       <c r="O8">
-        <v>24.83285168165171</v>
+        <v>21.64961509971195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.391919211534769</v>
+        <v>3.106366677568618</v>
       </c>
       <c r="D9">
-        <v>8.583391775605556</v>
+        <v>4.582967396766701</v>
       </c>
       <c r="E9">
-        <v>12.23365421745352</v>
+        <v>5.943985702621752</v>
       </c>
       <c r="F9">
-        <v>32.92443636391938</v>
+        <v>31.59124974515011</v>
       </c>
       <c r="G9">
-        <v>3.623985627140736</v>
+        <v>2.017089603515565</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.32597497721318</v>
+        <v>22.8855190346346</v>
       </c>
       <c r="J9">
-        <v>9.252451319735201</v>
+        <v>4.569986740629521</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25.14411438863251</v>
+        <v>33.33164253111999</v>
       </c>
       <c r="N9">
-        <v>18.00389334178022</v>
+        <v>21.12959496362289</v>
       </c>
       <c r="O9">
-        <v>25.19891841578698</v>
+        <v>24.34091104721095</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.448673818267319</v>
+        <v>3.280983953541118</v>
       </c>
       <c r="D10">
-        <v>8.539876830622928</v>
+        <v>4.474776428238602</v>
       </c>
       <c r="E10">
-        <v>12.12449385427441</v>
+        <v>5.610523285949314</v>
       </c>
       <c r="F10">
-        <v>33.28913270729051</v>
+        <v>34.0991209065129</v>
       </c>
       <c r="G10">
-        <v>3.619094539838489</v>
+        <v>2.002821195611125</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.62759102433816</v>
+        <v>24.71728016696916</v>
       </c>
       <c r="J10">
-        <v>9.182911322196514</v>
+        <v>4.347804009454018</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.28619384068628</v>
+        <v>36.28208550290934</v>
       </c>
       <c r="N10">
-        <v>18.49665465511209</v>
+        <v>22.47268660710412</v>
       </c>
       <c r="O10">
-        <v>25.50076058273719</v>
+        <v>26.27063687632731</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.473865022106858</v>
+        <v>3.357584366972359</v>
       </c>
       <c r="D11">
-        <v>8.521009016541985</v>
+        <v>4.427280569667675</v>
       </c>
       <c r="E11">
-        <v>12.07693143210543</v>
+        <v>5.461148864202277</v>
       </c>
       <c r="F11">
-        <v>33.46467596889456</v>
+        <v>35.22809793846292</v>
       </c>
       <c r="G11">
-        <v>3.616974573440489</v>
+        <v>1.996416805807536</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.77083575868803</v>
+        <v>25.66745408396852</v>
       </c>
       <c r="J11">
-        <v>9.152582823624545</v>
+        <v>4.247873895779733</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.78955017544916</v>
+        <v>37.55135451775679</v>
       </c>
       <c r="N11">
-        <v>18.71815517954719</v>
+        <v>23.06149584225767</v>
       </c>
       <c r="O11">
-        <v>25.64479880603449</v>
+        <v>27.15958125587526</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.483310855958623</v>
+        <v>3.386177245308422</v>
       </c>
       <c r="D12">
-        <v>8.513997034363864</v>
+        <v>4.409547669741514</v>
       </c>
       <c r="E12">
-        <v>12.05922043696315</v>
+        <v>5.40488871001744</v>
       </c>
       <c r="F12">
-        <v>33.5324901458415</v>
+        <v>35.65388872129056</v>
       </c>
       <c r="G12">
-        <v>3.616186803235762</v>
+        <v>1.99400149348041</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.82590657713705</v>
+        <v>26.02815496622289</v>
       </c>
       <c r="J12">
-        <v>9.141284896313294</v>
+        <v>4.210169349376213</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.97768265906496</v>
+        <v>38.02165462207545</v>
       </c>
       <c r="N12">
-        <v>18.80157582485754</v>
+        <v>23.28116275670826</v>
       </c>
       <c r="O12">
-        <v>25.70027102262187</v>
+        <v>27.53987481272989</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.481280739393291</v>
+        <v>3.380037750670124</v>
       </c>
       <c r="D13">
-        <v>8.515501289618186</v>
+        <v>4.41335542538843</v>
       </c>
       <c r="E13">
-        <v>12.06302150275741</v>
+        <v>5.416992259082141</v>
       </c>
       <c r="F13">
-        <v>33.5178263374936</v>
+        <v>35.56226344931775</v>
       </c>
       <c r="G13">
-        <v>3.616355797205544</v>
+        <v>1.994521277421223</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.8140099769848</v>
+        <v>25.95066905778077</v>
       </c>
       <c r="J13">
-        <v>9.143709813063939</v>
+        <v>4.218284073197342</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.93727739186719</v>
+        <v>37.92082484463838</v>
       </c>
       <c r="N13">
-        <v>18.78363116039325</v>
+        <v>23.23400200515889</v>
       </c>
       <c r="O13">
-        <v>25.68828346262399</v>
+        <v>27.45816593133186</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.474644030109244</v>
+        <v>3.359945047211212</v>
       </c>
       <c r="D14">
-        <v>8.520429476906404</v>
+        <v>4.425816572128874</v>
       </c>
       <c r="E14">
-        <v>12.07546833630959</v>
+        <v>5.456514369581114</v>
       </c>
       <c r="F14">
-        <v>33.47022850903759</v>
+        <v>35.26316249064754</v>
       </c>
       <c r="G14">
-        <v>3.616909462676703</v>
+        <v>1.996217913809365</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.77535013266915</v>
+        <v>25.69721842715751</v>
       </c>
       <c r="J14">
-        <v>9.151649597544392</v>
+        <v>4.244769342875567</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.80507841199399</v>
+        <v>37.59025288182001</v>
       </c>
       <c r="N14">
-        <v>18.72502781504861</v>
+        <v>23.07963472847442</v>
       </c>
       <c r="O14">
-        <v>25.6493441723044</v>
+        <v>27.19095599566086</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.470566574683885</v>
+        <v>3.347583612922493</v>
       </c>
       <c r="D15">
-        <v>8.523465420018709</v>
+        <v>4.433482482589342</v>
       </c>
       <c r="E15">
-        <v>12.08313139008072</v>
+        <v>5.480761611122746</v>
       </c>
       <c r="F15">
-        <v>33.44124650538136</v>
+        <v>35.07973010993228</v>
       </c>
       <c r="G15">
-        <v>3.617250551630891</v>
+        <v>1.997258361125337</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.7517763296801</v>
+        <v>25.54139113797258</v>
       </c>
       <c r="J15">
-        <v>9.156537246464982</v>
+        <v>4.261009302116006</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.7237758493987</v>
+        <v>37.38642512465653</v>
       </c>
       <c r="N15">
-        <v>18.68906993595304</v>
+        <v>22.9846472520599</v>
       </c>
       <c r="O15">
-        <v>25.62561238717235</v>
+        <v>27.02671051145011</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.447014608836152</v>
+        <v>3.275920299603986</v>
       </c>
       <c r="D16">
-        <v>8.541128504267565</v>
+        <v>4.477915441476734</v>
       </c>
       <c r="E16">
-        <v>12.12764420895655</v>
+        <v>5.620329486984941</v>
       </c>
       <c r="F16">
-        <v>33.27785062955766</v>
+        <v>34.02509717913843</v>
       </c>
       <c r="G16">
-        <v>3.619235190428475</v>
+        <v>2.003241265299857</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.61834767214825</v>
+        <v>24.66338328010568</v>
       </c>
       <c r="J16">
-        <v>9.184919553534346</v>
+        <v>4.354355364855427</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.25295946316044</v>
+        <v>36.19768045716828</v>
       </c>
       <c r="N16">
-        <v>18.48211912701639</v>
+        <v>22.433750109966</v>
       </c>
       <c r="O16">
-        <v>25.49147941436932</v>
+        <v>26.21377685894575</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.432403261528401</v>
+        <v>3.231225958117272</v>
       </c>
       <c r="D17">
-        <v>8.552201392324312</v>
+        <v>4.505617684349732</v>
       </c>
       <c r="E17">
-        <v>12.15548699162147</v>
+        <v>5.706523726265725</v>
       </c>
       <c r="F17">
-        <v>33.18004966951332</v>
+        <v>33.37503465309824</v>
       </c>
       <c r="G17">
-        <v>3.620479537385735</v>
+        <v>2.006931986827639</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.53801134185441</v>
+        <v>24.18964905638935</v>
       </c>
       <c r="J17">
-        <v>9.202664913278291</v>
+        <v>4.411893826895807</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.95987214038857</v>
+        <v>35.44984793581569</v>
       </c>
       <c r="N17">
-        <v>18.35442641974386</v>
+        <v>22.0900253844873</v>
       </c>
       <c r="O17">
-        <v>25.41088911543603</v>
+        <v>25.71419898462117</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.42394040535601</v>
+        <v>3.205252455321143</v>
       </c>
       <c r="D18">
-        <v>8.558657541243958</v>
+        <v>4.521712851218891</v>
       </c>
       <c r="E18">
-        <v>12.17169871603598</v>
+        <v>5.756320472119404</v>
       </c>
       <c r="F18">
-        <v>33.12470760199335</v>
+        <v>33.0000154025286</v>
       </c>
       <c r="G18">
-        <v>3.62120514233507</v>
+        <v>2.009063088703368</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.49237492946359</v>
+        <v>23.91599752137137</v>
       </c>
       <c r="J18">
-        <v>9.212994518734602</v>
+        <v>4.44509767885125</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.78978098658817</v>
+        <v>35.01284371808218</v>
       </c>
       <c r="N18">
-        <v>18.28073490852963</v>
+        <v>21.89024252646942</v>
       </c>
       <c r="O18">
-        <v>25.36517155015168</v>
+        <v>25.42578792257534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.421065034799943</v>
+        <v>3.196412739769176</v>
       </c>
       <c r="D19">
-        <v>8.560858494432603</v>
+        <v>4.527190009118195</v>
       </c>
       <c r="E19">
-        <v>12.17722165593352</v>
+        <v>5.773219457318723</v>
       </c>
       <c r="F19">
-        <v>33.10612747098825</v>
+        <v>32.87284982015225</v>
       </c>
       <c r="G19">
-        <v>3.621452520853632</v>
+        <v>2.009786141060097</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.47702250311425</v>
+        <v>23.82314370540341</v>
       </c>
       <c r="J19">
-        <v>9.216513089665543</v>
+        <v>4.456359495266627</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.73193568060229</v>
+        <v>34.86369746565212</v>
       </c>
       <c r="N19">
-        <v>18.25574429473078</v>
+        <v>21.82224585876799</v>
       </c>
       <c r="O19">
-        <v>25.3498027445098</v>
+        <v>25.32795491250353</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.433964774493416</v>
+        <v>3.236011383567573</v>
       </c>
       <c r="D20">
-        <v>8.551013631225363</v>
+        <v>4.502651977595772</v>
       </c>
       <c r="E20">
-        <v>12.15250267127151</v>
+        <v>5.697325628291243</v>
       </c>
       <c r="F20">
-        <v>33.19036684806937</v>
+        <v>33.44435128898533</v>
       </c>
       <c r="G20">
-        <v>3.620346051628926</v>
+        <v>2.006538262077778</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.5465044856102</v>
+        <v>24.24020043319179</v>
       </c>
       <c r="J20">
-        <v>9.200763171987674</v>
+        <v>4.405757643755545</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.99122973299017</v>
+        <v>35.53016610307468</v>
       </c>
       <c r="N20">
-        <v>18.36804554107394</v>
+        <v>22.12683179711606</v>
       </c>
       <c r="O20">
-        <v>25.41940256289688</v>
+        <v>25.76749060643443</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.476595957432745</v>
+        <v>3.36585803845249</v>
       </c>
       <c r="D21">
-        <v>8.518978347321356</v>
+        <v>4.422149522016864</v>
       </c>
       <c r="E21">
-        <v>12.07180427269934</v>
+        <v>5.44489773305262</v>
       </c>
       <c r="F21">
-        <v>33.48417317084535</v>
+        <v>35.35106238917786</v>
       </c>
       <c r="G21">
-        <v>3.616746430883649</v>
+        <v>1.995719323609666</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.78668335406598</v>
+        <v>25.77178386195255</v>
       </c>
       <c r="J21">
-        <v>9.149312427577906</v>
+        <v>4.236986493359849</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.84397682379355</v>
+        <v>37.68762947532444</v>
       </c>
       <c r="N21">
-        <v>18.74225401133652</v>
+        <v>23.12506656125115</v>
       </c>
       <c r="O21">
-        <v>25.66075672315419</v>
+        <v>27.26956083465074</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.503911241338503</v>
+        <v>3.448305634832966</v>
       </c>
       <c r="D22">
-        <v>8.498815556507505</v>
+        <v>4.371013325135772</v>
       </c>
       <c r="E22">
-        <v>12.02081037539214</v>
+        <v>5.281683465041286</v>
       </c>
       <c r="F22">
-        <v>33.68397803564594</v>
+        <v>36.58717920689858</v>
       </c>
       <c r="G22">
-        <v>3.614481350449505</v>
+        <v>1.988704803830397</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.94845510654388</v>
+        <v>26.81346719249945</v>
       </c>
       <c r="J22">
-        <v>9.116774877377667</v>
+        <v>4.127467917322206</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.38679562866824</v>
+        <v>39.03743211589345</v>
       </c>
       <c r="N22">
-        <v>18.98412629244543</v>
+        <v>23.75818481610264</v>
       </c>
       <c r="O22">
-        <v>25.82388541667477</v>
+        <v>28.36840910326827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.489383676493509</v>
+        <v>3.404524297883983</v>
       </c>
       <c r="D23">
-        <v>8.509506150227686</v>
+        <v>4.398168392955693</v>
       </c>
       <c r="E23">
-        <v>12.04786737927213</v>
+        <v>5.368642549329067</v>
       </c>
       <c r="F23">
-        <v>33.57664220700282</v>
+        <v>35.92834520634986</v>
       </c>
       <c r="G23">
-        <v>3.615682290314427</v>
+        <v>1.99244434188367</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.86168921769576</v>
+        <v>26.25983307971649</v>
       </c>
       <c r="J23">
-        <v>9.134041488506856</v>
+        <v>4.185858030388569</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.09845566865926</v>
+        <v>38.32247921569707</v>
       </c>
       <c r="N23">
-        <v>18.85530473900339</v>
+        <v>23.42207424058417</v>
       </c>
       <c r="O23">
-        <v>25.7363409565462</v>
+        <v>27.78422461541273</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.433259009199467</v>
+        <v>3.233848758513174</v>
       </c>
       <c r="D24">
-        <v>8.551550337026843</v>
+        <v>4.503992248292373</v>
       </c>
       <c r="E24">
-        <v>12.15385124527181</v>
+        <v>5.701483330790662</v>
       </c>
       <c r="F24">
-        <v>33.18569969140896</v>
+        <v>33.41301725222777</v>
       </c>
       <c r="G24">
-        <v>3.620406368719337</v>
+        <v>2.006716236016149</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.54266301895881</v>
+        <v>24.21735018922476</v>
       </c>
       <c r="J24">
-        <v>9.201622551804917</v>
+        <v>4.408531423181426</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.97705791042704</v>
+        <v>35.49387627698611</v>
       </c>
       <c r="N24">
-        <v>18.36188920049834</v>
+        <v>22.11019837101641</v>
       </c>
       <c r="O24">
-        <v>25.4155517150365</v>
+        <v>25.74340119131639</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.37048608360743</v>
+        <v>3.039606337277997</v>
       </c>
       <c r="D25">
-        <v>8.600242274839282</v>
+        <v>4.624307848460067</v>
       </c>
       <c r="E25">
-        <v>12.27572100434</v>
+        <v>6.069028745272737</v>
       </c>
       <c r="F25">
-        <v>32.7989712263597</v>
+        <v>30.65776333513022</v>
       </c>
       <c r="G25">
-        <v>3.625880511114031</v>
+        <v>2.022436159389285</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.22051614098257</v>
+        <v>22.20031896366097</v>
       </c>
       <c r="J25">
-        <v>9.279224040940614</v>
+        <v>4.652990781211798</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>24.71027626824297</v>
+        <v>32.17959583958215</v>
       </c>
       <c r="N25">
-        <v>17.82058340548246</v>
+        <v>20.61623019488036</v>
       </c>
       <c r="O25">
-        <v>25.0939766227154</v>
+        <v>23.62065196500686</v>
       </c>
     </row>
   </sheetData>
